--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H2">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I2">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J2">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N2">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O2">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P2">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q2">
-        <v>0.0007537251753333331</v>
+        <v>0.01459726447088889</v>
       </c>
       <c r="R2">
-        <v>0.006783526577999999</v>
+        <v>0.131375380238</v>
       </c>
       <c r="S2">
-        <v>5.018160772929697E-05</v>
+        <v>0.0004081896909736922</v>
       </c>
       <c r="T2">
-        <v>5.287871712668283E-05</v>
+        <v>0.0005141119555655712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H3">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I3">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J3">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.963486</v>
       </c>
       <c r="O3">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P3">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q3">
-        <v>0.007939147760666666</v>
+        <v>0.1569770911773333</v>
       </c>
       <c r="R3">
-        <v>0.07145232984599999</v>
+        <v>1.412793820596</v>
       </c>
       <c r="S3">
-        <v>0.0005285735592611856</v>
+        <v>0.004389619059475936</v>
       </c>
       <c r="T3">
-        <v>0.0005569827868328388</v>
+        <v>0.005528693371632761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H4">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I4">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J4">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N4">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O4">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P4">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q4">
-        <v>9.89479631111111E-05</v>
+        <v>0.2965266469123333</v>
       </c>
       <c r="R4">
-        <v>0.000890531668</v>
+        <v>1.779159881474</v>
       </c>
       <c r="S4">
-        <v>6.58776969770023E-06</v>
+        <v>0.008291904322895364</v>
       </c>
       <c r="T4">
-        <v>6.941842362237595E-06</v>
+        <v>0.006962395574203917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.003420333333333333</v>
+        <v>0.06762866666666667</v>
       </c>
       <c r="H5">
-        <v>0.010261</v>
+        <v>0.202886</v>
       </c>
       <c r="I5">
-        <v>0.0006787744882400219</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="J5">
-        <v>0.0006824388225951697</v>
+        <v>0.0134153952845566</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N5">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O5">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P5">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q5">
-        <v>0.001403337114166667</v>
+        <v>0.01164671591577778</v>
       </c>
       <c r="R5">
-        <v>0.008420022684999999</v>
+        <v>0.104820443242</v>
       </c>
       <c r="S5">
-        <v>9.343155155183912E-05</v>
+        <v>0.0003256822112116064</v>
       </c>
       <c r="T5">
-        <v>6.563547627341034E-05</v>
+        <v>0.0004101943831543498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>14.863179</v>
       </c>
       <c r="I6">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J6">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N6">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O6">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P6">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q6">
-        <v>1.091779767838</v>
+        <v>1.069377654156333</v>
       </c>
       <c r="R6">
-        <v>9.826017910541999</v>
+        <v>9.624398887406999</v>
       </c>
       <c r="S6">
-        <v>0.07268864810333539</v>
+        <v>0.0299034750692343</v>
       </c>
       <c r="T6">
-        <v>0.07659544273893895</v>
+        <v>0.03766320998792982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.863179</v>
       </c>
       <c r="I7">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J7">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.963486</v>
       </c>
       <c r="O7">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P7">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q7">
         <v>11.499948764666</v>
@@ -883,10 +883,10 @@
         <v>103.499538881994</v>
       </c>
       <c r="S7">
-        <v>0.7656450078906646</v>
+        <v>0.321578097171823</v>
       </c>
       <c r="T7">
-        <v>0.8067961076518202</v>
+        <v>0.4050252812845206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>14.863179</v>
       </c>
       <c r="I8">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J8">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N8">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O8">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P8">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q8">
-        <v>0.1433272865613333</v>
+        <v>21.7231777023935</v>
       </c>
       <c r="R8">
-        <v>1.289945579052</v>
+        <v>130.339066214361</v>
       </c>
       <c r="S8">
-        <v>0.00954246177055788</v>
+        <v>0.6074547194092622</v>
       </c>
       <c r="T8">
-        <v>0.01005534018319074</v>
+        <v>0.5100565425322624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>14.863179</v>
       </c>
       <c r="I9">
-        <v>0.9832128174003353</v>
+        <v>0.9827953701592058</v>
       </c>
       <c r="J9">
-        <v>0.9885206487458582</v>
+        <v>0.9827953701592059</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N9">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O9">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P9">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q9">
-        <v>2.0327502899525</v>
+        <v>0.8532240934236666</v>
       </c>
       <c r="R9">
-        <v>12.196501739715</v>
+        <v>7.679016840812999</v>
       </c>
       <c r="S9">
-        <v>0.1353366996357775</v>
+        <v>0.02385907850888633</v>
       </c>
       <c r="T9">
-        <v>0.09507375817190827</v>
+        <v>0.0300503363544931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H10">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I10">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J10">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.220366</v>
+        <v>0.2158443333333333</v>
       </c>
       <c r="N10">
-        <v>0.661098</v>
+        <v>0.647533</v>
       </c>
       <c r="O10">
-        <v>0.07392971980931644</v>
+        <v>0.0304269596471442</v>
       </c>
       <c r="P10">
-        <v>0.07748491934499904</v>
+        <v>0.0383225350174662</v>
       </c>
       <c r="Q10">
-        <v>0.01788710822</v>
+        <v>0.004123058455333333</v>
       </c>
       <c r="R10">
-        <v>0.10732264932</v>
+        <v>0.03710752609800001</v>
       </c>
       <c r="S10">
-        <v>0.00119089009825174</v>
+        <v>0.0001152948869362026</v>
       </c>
       <c r="T10">
-        <v>0.0008365978889334073</v>
+        <v>0.0001452130739708044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H11">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I11">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J11">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.963486</v>
       </c>
       <c r="O11">
-        <v>0.778717480428163</v>
+        <v>0.3272075825100088</v>
       </c>
       <c r="P11">
-        <v>0.816165154137556</v>
+        <v>0.4121155772426048</v>
       </c>
       <c r="Q11">
-        <v>0.18840871954</v>
+        <v>0.044338836524</v>
       </c>
       <c r="R11">
-        <v>1.13045231724</v>
+        <v>0.399049528716</v>
       </c>
       <c r="S11">
-        <v>0.01254389897823714</v>
+        <v>0.001239866278709857</v>
       </c>
       <c r="T11">
-        <v>0.008812063698902939</v>
+        <v>0.001561602586451441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,49 +1154,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H12">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I12">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J12">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.02892933333333333</v>
+        <v>4.3846295</v>
       </c>
       <c r="N12">
-        <v>0.086788</v>
+        <v>8.769259</v>
       </c>
       <c r="O12">
-        <v>0.009705387889255384</v>
+        <v>0.6180887068188557</v>
       </c>
       <c r="P12">
-        <v>0.01017210939998877</v>
+        <v>0.5189854958816471</v>
       </c>
       <c r="Q12">
-        <v>0.002348193986666667</v>
+        <v>0.083755192709</v>
       </c>
       <c r="R12">
-        <v>0.01408916392</v>
+        <v>0.502531156254</v>
       </c>
       <c r="S12">
-        <v>0.0001563383489998034</v>
+        <v>0.002342083086698154</v>
       </c>
       <c r="T12">
-        <v>0.000109827374435791</v>
+        <v>0.00196655777518079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,49 +1216,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.08117000000000001</v>
+        <v>0.019102</v>
       </c>
       <c r="H13">
-        <v>0.16234</v>
+        <v>0.057306</v>
       </c>
       <c r="I13">
-        <v>0.01610840811142459</v>
+        <v>0.003789234556237495</v>
       </c>
       <c r="J13">
-        <v>0.01079691243154662</v>
+        <v>0.003789234556237496</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4102925</v>
+        <v>0.1722156666666667</v>
       </c>
       <c r="N13">
-        <v>0.820585</v>
+        <v>0.516647</v>
       </c>
       <c r="O13">
-        <v>0.1376474118732652</v>
+        <v>0.02427675102399122</v>
       </c>
       <c r="P13">
-        <v>0.09617781711745617</v>
+        <v>0.03057639185828191</v>
       </c>
       <c r="Q13">
-        <v>0.033303442225</v>
+        <v>0.003289663664666667</v>
       </c>
       <c r="R13">
-        <v>0.1332137689</v>
+        <v>0.029606972982</v>
       </c>
       <c r="S13">
-        <v>0.002217280685935907</v>
+        <v>9.199030389328153E-05</v>
       </c>
       <c r="T13">
-        <v>0.00103842346927448</v>
+        <v>0.0001158611206344606</v>
       </c>
     </row>
   </sheetData>
